--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Il1a</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H2">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I2">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J2">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.9402206690813</v>
+        <v>20.003843</v>
       </c>
       <c r="N2">
-        <v>17.9402206690813</v>
+        <v>40.007686</v>
       </c>
       <c r="O2">
-        <v>0.1470734896687511</v>
+        <v>0.1517504313331627</v>
       </c>
       <c r="P2">
-        <v>0.1470734896687511</v>
+        <v>0.1111693208434551</v>
       </c>
       <c r="Q2">
-        <v>53.42216111060889</v>
+        <v>61.133204488539</v>
       </c>
       <c r="R2">
-        <v>53.42216111060889</v>
+        <v>366.799226931234</v>
       </c>
       <c r="S2">
-        <v>0.06711855757522327</v>
+        <v>0.06919082333204485</v>
       </c>
       <c r="T2">
-        <v>0.06711855757522327</v>
+        <v>0.05068780873205971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H3">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I3">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J3">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.37749150087841</v>
+        <v>85.28390633333333</v>
       </c>
       <c r="N3">
-        <v>80.37749150087841</v>
+        <v>255.851719</v>
       </c>
       <c r="O3">
-        <v>0.6589327067881564</v>
+        <v>0.6469691634682588</v>
       </c>
       <c r="P3">
-        <v>0.6589327067881564</v>
+        <v>0.710934939797831</v>
       </c>
       <c r="Q3">
-        <v>239.3470726938618</v>
+        <v>260.633843479829</v>
       </c>
       <c r="R3">
-        <v>239.3470726938618</v>
+        <v>2345.704591318461</v>
       </c>
       <c r="S3">
-        <v>0.3007109773377157</v>
+        <v>0.2949865031522357</v>
       </c>
       <c r="T3">
-        <v>0.3007109773377157</v>
+        <v>0.324151789144733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H4">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I4">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J4">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.289509678950694</v>
+        <v>0.3719913333333333</v>
       </c>
       <c r="N4">
-        <v>0.289509678950694</v>
+        <v>1.115974</v>
       </c>
       <c r="O4">
-        <v>0.00237339325761698</v>
+        <v>0.002821950026578976</v>
       </c>
       <c r="P4">
-        <v>0.00237339325761698</v>
+        <v>0.003100955942789443</v>
       </c>
       <c r="Q4">
-        <v>0.8620982426732124</v>
+        <v>1.136832670034</v>
       </c>
       <c r="R4">
-        <v>0.8620982426732124</v>
+        <v>10.231494030306</v>
       </c>
       <c r="S4">
-        <v>0.001083123358049064</v>
+        <v>0.001286672097242439</v>
       </c>
       <c r="T4">
-        <v>0.001083123358049064</v>
+        <v>0.001413885238500212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H5">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I5">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J5">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.355955655560954</v>
+        <v>0.3862156666666667</v>
       </c>
       <c r="N5">
-        <v>0.355955655560954</v>
+        <v>1.158647</v>
       </c>
       <c r="O5">
-        <v>0.002918115746530467</v>
+        <v>0.002929856728244252</v>
       </c>
       <c r="P5">
-        <v>0.002918115746530467</v>
+        <v>0.003219531369230071</v>
       </c>
       <c r="Q5">
-        <v>1.059960227377932</v>
+        <v>1.180303271077</v>
       </c>
       <c r="R5">
-        <v>1.059960227377932</v>
+        <v>10.622729439693</v>
       </c>
       <c r="S5">
-        <v>0.001331713282834312</v>
+        <v>0.001335872310155666</v>
       </c>
       <c r="T5">
-        <v>0.001331713282834312</v>
+        <v>0.001467949871531555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H6">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I6">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J6">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.0097900643193</v>
+        <v>10.19719066666667</v>
       </c>
       <c r="N6">
-        <v>10.0097900643193</v>
+        <v>30.591572</v>
       </c>
       <c r="O6">
-        <v>0.08206001379616369</v>
+        <v>0.07735654004348905</v>
       </c>
       <c r="P6">
-        <v>0.08206001379616369</v>
+        <v>0.08500477340213224</v>
       </c>
       <c r="Q6">
-        <v>29.80702564160944</v>
+        <v>31.163359072252</v>
       </c>
       <c r="R6">
-        <v>29.80702564160944</v>
+        <v>280.470231650268</v>
       </c>
       <c r="S6">
-        <v>0.03744896359640582</v>
+        <v>0.03527082360626956</v>
       </c>
       <c r="T6">
-        <v>0.03744896359640582</v>
+        <v>0.03875804640011005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.97778729124989</v>
+        <v>3.056073</v>
       </c>
       <c r="H7">
-        <v>2.97778729124989</v>
+        <v>9.168219000000001</v>
       </c>
       <c r="I7">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020136</v>
       </c>
       <c r="J7">
-        <v>0.4563606787762515</v>
+        <v>0.4559514113020135</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.0083678131839</v>
+        <v>15.5775195</v>
       </c>
       <c r="N7">
-        <v>13.0083678131839</v>
+        <v>31.155039</v>
       </c>
       <c r="O7">
-        <v>0.1066422807427814</v>
+        <v>0.1181720584002661</v>
       </c>
       <c r="P7">
-        <v>0.1066422807427814</v>
+        <v>0.08657047864456238</v>
       </c>
       <c r="Q7">
-        <v>38.73615235400315</v>
+        <v>47.6060367509235</v>
       </c>
       <c r="R7">
-        <v>38.73615235400315</v>
+        <v>285.636220505541</v>
       </c>
       <c r="S7">
-        <v>0.04866734362602328</v>
+        <v>0.05388071680406529</v>
       </c>
       <c r="T7">
-        <v>0.04866734362602328</v>
+        <v>0.03947193191507904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H8">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I8">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J8">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.9402206690813</v>
+        <v>20.003843</v>
       </c>
       <c r="N8">
-        <v>17.9402206690813</v>
+        <v>40.007686</v>
       </c>
       <c r="O8">
-        <v>0.1470734896687511</v>
+        <v>0.1517504313331627</v>
       </c>
       <c r="P8">
-        <v>0.1470734896687511</v>
+        <v>0.1111693208434551</v>
       </c>
       <c r="Q8">
-        <v>63.63910993023198</v>
+        <v>71.85658459017699</v>
       </c>
       <c r="R8">
-        <v>63.63910993023198</v>
+        <v>431.139507541062</v>
       </c>
       <c r="S8">
-        <v>0.07995493209352784</v>
+        <v>0.08132759097480598</v>
       </c>
       <c r="T8">
-        <v>0.07995493209352784</v>
+        <v>0.05957896116060456</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H9">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I9">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J9">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.37749150087841</v>
+        <v>85.28390633333333</v>
       </c>
       <c r="N9">
-        <v>80.37749150087841</v>
+        <v>255.851719</v>
       </c>
       <c r="O9">
-        <v>0.6589327067881564</v>
+        <v>0.6469691634682588</v>
       </c>
       <c r="P9">
-        <v>0.6589327067881564</v>
+        <v>0.710934939797831</v>
       </c>
       <c r="Q9">
-        <v>285.122023407231</v>
+        <v>306.3516460123137</v>
       </c>
       <c r="R9">
-        <v>285.122023407231</v>
+        <v>2757.164814110823</v>
       </c>
       <c r="S9">
-        <v>0.3582217294504406</v>
+        <v>0.3467301083602286</v>
       </c>
       <c r="T9">
-        <v>0.3582217294504406</v>
+        <v>0.3810112794120337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H10">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I10">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J10">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.289509678950694</v>
+        <v>0.3719913333333333</v>
       </c>
       <c r="N10">
-        <v>0.289509678950694</v>
+        <v>1.115974</v>
       </c>
       <c r="O10">
-        <v>0.00237339325761698</v>
+        <v>0.002821950026578976</v>
       </c>
       <c r="P10">
-        <v>0.00237339325761698</v>
+        <v>0.003100955942789443</v>
       </c>
       <c r="Q10">
-        <v>1.026973894271105</v>
+        <v>1.336244576128667</v>
       </c>
       <c r="R10">
-        <v>1.026973894271105</v>
+        <v>12.026201185158</v>
       </c>
       <c r="S10">
-        <v>0.001290269899567916</v>
+        <v>0.001512367348789232</v>
       </c>
       <c r="T10">
-        <v>0.001290269899567916</v>
+        <v>0.001661894956940137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H11">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I11">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J11">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.355955655560954</v>
+        <v>0.3862156666666667</v>
       </c>
       <c r="N11">
-        <v>0.355955655560954</v>
+        <v>1.158647</v>
       </c>
       <c r="O11">
-        <v>0.002918115746530467</v>
+        <v>0.002929856728244252</v>
       </c>
       <c r="P11">
-        <v>0.002918115746530467</v>
+        <v>0.003219531369230071</v>
       </c>
       <c r="Q11">
-        <v>1.262676837279469</v>
+        <v>1.387340358644333</v>
       </c>
       <c r="R11">
-        <v>1.262676837279469</v>
+        <v>12.486063227799</v>
       </c>
       <c r="S11">
-        <v>0.001586402463696155</v>
+        <v>0.001570197774833999</v>
       </c>
       <c r="T11">
-        <v>0.001586402463696155</v>
+        <v>0.001725443071410103</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H12">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I12">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J12">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.0097900643193</v>
+        <v>10.19719066666667</v>
       </c>
       <c r="N12">
-        <v>10.0097900643193</v>
+        <v>30.591572</v>
       </c>
       <c r="O12">
-        <v>0.08206001379616369</v>
+        <v>0.07735654004348905</v>
       </c>
       <c r="P12">
-        <v>0.08206001379616369</v>
+        <v>0.08500477340213224</v>
       </c>
       <c r="Q12">
-        <v>35.50759726047342</v>
+        <v>36.62972628416933</v>
       </c>
       <c r="R12">
-        <v>35.50759726047342</v>
+        <v>329.667536557524</v>
       </c>
       <c r="S12">
-        <v>0.04461105019975786</v>
+        <v>0.04145768148804086</v>
       </c>
       <c r="T12">
-        <v>0.04461105019975786</v>
+        <v>0.04555659830038253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.54728690934719</v>
+        <v>3.592139</v>
       </c>
       <c r="H13">
-        <v>3.54728690934719</v>
+        <v>10.776417</v>
       </c>
       <c r="I13">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="J13">
-        <v>0.5436393212237485</v>
+        <v>0.5359298834298145</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.0083678131839</v>
+        <v>15.5775195</v>
       </c>
       <c r="N13">
-        <v>13.0083678131839</v>
+        <v>31.155039</v>
       </c>
       <c r="O13">
-        <v>0.1066422807427814</v>
+        <v>0.1181720584002661</v>
       </c>
       <c r="P13">
-        <v>0.1066422807427814</v>
+        <v>0.08657047864456238</v>
       </c>
       <c r="Q13">
-        <v>46.14441285568059</v>
+        <v>55.95661531921051</v>
       </c>
       <c r="R13">
-        <v>46.14441285568059</v>
+        <v>335.7396919152631</v>
       </c>
       <c r="S13">
-        <v>0.05797493711675809</v>
+        <v>0.06333193748311583</v>
       </c>
       <c r="T13">
-        <v>0.05797493711675809</v>
+        <v>0.04639570652844356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.16325</v>
+      </c>
+      <c r="I14">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J14">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>20.003843</v>
+      </c>
+      <c r="N14">
+        <v>40.007686</v>
+      </c>
+      <c r="O14">
+        <v>0.1517504313331627</v>
+      </c>
+      <c r="P14">
+        <v>0.1111693208434551</v>
+      </c>
+      <c r="Q14">
+        <v>1.088542456583333</v>
+      </c>
+      <c r="R14">
+        <v>6.5312547395</v>
+      </c>
+      <c r="S14">
+        <v>0.001232017026311906</v>
+      </c>
+      <c r="T14">
+        <v>0.0009025509507908511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.16325</v>
+      </c>
+      <c r="I15">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J15">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>85.28390633333333</v>
+      </c>
+      <c r="N15">
+        <v>255.851719</v>
+      </c>
+      <c r="O15">
+        <v>0.6469691634682588</v>
+      </c>
+      <c r="P15">
+        <v>0.710934939797831</v>
+      </c>
+      <c r="Q15">
+        <v>4.640865902972222</v>
+      </c>
+      <c r="R15">
+        <v>41.76779312675</v>
+      </c>
+      <c r="S15">
+        <v>0.00525255195579452</v>
+      </c>
+      <c r="T15">
+        <v>0.005771871241064121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.16325</v>
+      </c>
+      <c r="I16">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J16">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3719913333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.115974</v>
+      </c>
+      <c r="O16">
+        <v>0.002821950026578976</v>
+      </c>
+      <c r="P16">
+        <v>0.003100955942789443</v>
+      </c>
+      <c r="Q16">
+        <v>0.02024252838888889</v>
+      </c>
+      <c r="R16">
+        <v>0.1821827555</v>
+      </c>
+      <c r="S16">
+        <v>2.291058054730456E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.51757473490936E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.16325</v>
+      </c>
+      <c r="I17">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J17">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3862156666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.158647</v>
+      </c>
+      <c r="O17">
+        <v>0.002929856728244252</v>
+      </c>
+      <c r="P17">
+        <v>0.003219531369230071</v>
+      </c>
+      <c r="Q17">
+        <v>0.02101656919444445</v>
+      </c>
+      <c r="R17">
+        <v>0.18914912275</v>
+      </c>
+      <c r="S17">
+        <v>2.378664325458549E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.613842628841286E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.16325</v>
+      </c>
+      <c r="I18">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J18">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.19719066666667</v>
+      </c>
+      <c r="N18">
+        <v>30.591572</v>
+      </c>
+      <c r="O18">
+        <v>0.07735654004348905</v>
+      </c>
+      <c r="P18">
+        <v>0.08500477340213224</v>
+      </c>
+      <c r="Q18">
+        <v>0.5548971254444445</v>
+      </c>
+      <c r="R18">
+        <v>4.994074129</v>
+      </c>
+      <c r="S18">
+        <v>0.0006280349491786251</v>
+      </c>
+      <c r="T18">
+        <v>0.0006901287016396494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05441666666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.16325</v>
+      </c>
+      <c r="I19">
+        <v>0.0081187052681719</v>
+      </c>
+      <c r="J19">
+        <v>0.008118705268171898</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.5775195</v>
+      </c>
+      <c r="N19">
+        <v>31.155039</v>
+      </c>
+      <c r="O19">
+        <v>0.1181720584002661</v>
+      </c>
+      <c r="P19">
+        <v>0.08657047864456238</v>
+      </c>
+      <c r="Q19">
+        <v>0.8476766861250001</v>
+      </c>
+      <c r="R19">
+        <v>5.086060116750001</v>
+      </c>
+      <c r="S19">
+        <v>0.0009594041130849577</v>
+      </c>
+      <c r="T19">
+        <v>0.0007028402010397715</v>
       </c>
     </row>
   </sheetData>
